--- a/biology/Biochimie/Archéosine/Archéosine.xlsx
+++ b/biology/Biochimie/Archéosine/Archéosine.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Arch%C3%A9osine</t>
+          <t>Archéosine</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
-L'archéosine (G*) est un nucléoside rare de certains ARN de transfert spécifique aux archées. Elle est formée d'une base nucléique qui a les mêmes propriétés d'appariement que la guanine, liée à un résidu de β-D-ribofuranose. Ce nucléoside a été découvert en 1982[2] lors du séquençage de l'ARNt de Thermoplasma acidophilum, une archée thermophile et acidophile de l'embranchement des Euryarchaeota, et a par la suite été retrouvée chez la plupart des autres espèces d'archées[3] ; l'archéosine n'a en revanche jamais été observée chez les bactéries et des eucaryotes. Ce nucléoside résulte du remplacement d'un résidu de guanine en position 15 de la boucle D d'un ARN de transfert par une enzyme, de type ARNt-guanine glycosyltransférase, spécifique aux archées[4].
+L'archéosine (G*) est un nucléoside rare de certains ARN de transfert spécifique aux archées. Elle est formée d'une base nucléique qui a les mêmes propriétés d'appariement que la guanine, liée à un résidu de β-D-ribofuranose. Ce nucléoside a été découvert en 1982 lors du séquençage de l'ARNt de Thermoplasma acidophilum, une archée thermophile et acidophile de l'embranchement des Euryarchaeota, et a par la suite été retrouvée chez la plupart des autres espèces d'archées ; l'archéosine n'a en revanche jamais été observée chez les bactéries et des eucaryotes. Ce nucléoside résulte du remplacement d'un résidu de guanine en position 15 de la boucle D d'un ARN de transfert par une enzyme, de type ARNt-guanine glycosyltransférase, spécifique aux archées.
 </t>
         </is>
       </c>
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Arch%C3%A9osine</t>
+          <t>Archéosine</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -512,7 +524,9 @@
           <t>Littérature</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>Florian Klepper: Synthese der natürlichen tRNA Nukleosidmodifikationen Queuosin und Archaeosin, Dissertation, München 2007 (PDF; 5,1 MB).</t>
         </is>
